--- a/medicine/Enfance/Olivier_Douzou/Olivier_Douzou.xlsx
+++ b/medicine/Enfance/Olivier_Douzou/Olivier_Douzou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier Douzou, né le 27 novembre 1963 à Rodez, est un écrivain, illustrateur et graphiste français.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olivier Douzou est architecte de formation, et est amené à collaborer, en tant que graphiste, avec les Éditions du Rouergue pour la mise en page de plusieurs albums. En 1993, il y publie son premier album, Jojo la mâche, puis crée un département jeunesse des Éditions du Rouergue[1] en 1994, dont il devient directeur artistique jusqu'en 2001[2]. Il y crée également la collection de romans pour adolescents « Do à do »[1], et la collection « Touzazimute »[1]. Il participe ensuite à la naissance des Éditions L'Ampoule. Olivier Douzou publie une quarantaine d'ouvrages aux Éditions du Rouergue et sept albums aux Éditions MeMo entre 2004 et 2007.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olivier Douzou est architecte de formation, et est amené à collaborer, en tant que graphiste, avec les Éditions du Rouergue pour la mise en page de plusieurs albums. En 1993, il y publie son premier album, Jojo la mâche, puis crée un département jeunesse des Éditions du Rouergue en 1994, dont il devient directeur artistique jusqu'en 2001. Il y crée également la collection de romans pour adolescents « Do à do », et la collection « Touzazimute ». Il participe ensuite à la naissance des Éditions L'Ampoule. Olivier Douzou publie une quarantaine d'ouvrages aux Éditions du Rouergue et sept albums aux Éditions MeMo entre 2004 et 2007.
 Ses livres ont obtenu plusieurs récompenses aux différents salons du livre de jeunesse : prix BolognaRagazzi 1999 à la foire du livre de jeunesse de Bologne (Italie), prix Totem du roman à Montreuil, prix Pitchou pour Loup en 1997 (Fête du livre de jeunesse de Saint-Paul-Trois-Châteaux), Cercle d'or Livre hebdo, Octogone d'argent, prix Baobab 2006 du Salon du livre de Montreuil, notamment.
-Pour l'année 2021, il est sélectionné pour la huitième année d'affilée (depuis 2014) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[3].
-En juin 2022, l'équipe formé par Edith Clavel, David Fourré et Olivier Douzou remportent les votes de la consultation publique pour désigner l'enseigne unique qui ornera les bibliothèques[4].
+Pour l'année 2021, il est sélectionné pour la huitième année d'affilée (depuis 2014) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
+En juin 2022, l'équipe formé par Edith Clavel, David Fourré et Olivier Douzou remportent les votes de la consultation publique pour désigner l'enseigne unique qui ornera les bibliothèques.
 </t>
         </is>
       </c>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Années 1990
-1993 :
+          <t>Années 1990</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1993 :
 Jojo la Mâche - Mention spéciale à la Foire du livre de Bruxelles 1994, Pitchou d’or 1997
 Mono le Cyclope, texte et illustrations - Sélection Totem 1994 Montreuil
 1994
@@ -597,9 +616,43 @@
 Bon pour le coiffeur, texte, illustrations de Ninon Pelletier
 Nationale Zéro, texte et illustrations de Frédérique Bertrand, Lynda Corazza, Olivier Douzou, José Parrondo et Frédéric Rey
 www.esperenoël, texte, illustrations de Jochen Gerner
-Réclame, Collection Touzazimut, collaboration avec Frédéric Rey
-Années 2000
-2000
+Réclame, Collection Touzazimut, collaboration avec Frédéric Rey</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olivier_Douzou</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Douzou</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2000
 Drôle de truc, texte, illustrations de Vincent Jean
 Arrosoir, texte et illustrations
 Merci, texte, illustrations de Natali Fortier
@@ -626,9 +679,43 @@
 Le nez, éditions MeMo - Prix Baobab 2006
 2007
 Pierre et le l'ours, ill: Frédérique Bertrand, Memo
-Play, MeMo
-Années 2010
-2010
+Play, MeMo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olivier_Douzou</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Douzou</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2010
 Rolling et les statues-menhirs, Editions Musée Fenaille
 2011
 Le petit bonhomme pané, ill: Frédérique Bertrand
@@ -636,7 +723,7 @@
 La dispa.ition, Rouergue
 2012
 Plupk, iIl.: Natali Fortier
-Fourmi[5]
+Fourmi
 Poèmes de terre, ill.: Anouk Ricard
 Les aventures d'Alexandre le gland
 Teckel, ill: Frédérique Bertrand
@@ -659,12 +746,12 @@
 Le 1er..., Rouergue
 Le conte du prince en deux ou l'histoire d'une mémorable fessée, ill: Frédérique Bertrand, Rouergue
 Touït Touït, Rouergue
-Go escargot go !, Rouegue (sous le nom de Elena et Jan Kroell[6])
+Go escargot go !, Rouegue (sous le nom de Elena et Jan Kroell)
 2016
-Pipeau[7], Rouergue
-Buffalo Belle[8], Rouergue
+Pipeau, Rouergue
+Buffalo Belle, Rouergue
 2019
-Les aoûtiens[9], Olivier Douzou et Frédérique Bertrand, Rouergue</t>
+Les aoûtiens, Olivier Douzou et Frédérique Bertrand, Rouergue</t>
         </is>
       </c>
     </row>
